--- a/weather_table.xlsx
+++ b/weather_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Área de Trabalho\MATLAB_TEMP\MR_Traffic_Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BA527-0E64-4220-84E5-2CFDD4919BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A4D03-B93F-44F0-B9DC-EE6DB75C8B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="9345" xr2:uid="{A5B792F0-B70C-47AA-A7E2-7E38069FFD15}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="14670" windowHeight="9345" xr2:uid="{A5B792F0-B70C-47AA-A7E2-7E38069FFD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Wheather</t>
-  </si>
-  <si>
     <t>ClearSky</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Visibility(m)</t>
+  </si>
+  <si>
+    <t>Weather</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,13 +430,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1500</v>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2000</v>
